--- a/biology/Histoire de la zoologie et de la botanique/Richard_Meinertzhagen/Richard_Meinertzhagen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Meinertzhagen/Richard_Meinertzhagen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Henry Meinertzhagen (3 mars 1878 – 17 juin 1967) est un soldat britannique, officier des renseignements et ornithologue britannique. Ses exploits et ses travaux lui conférèrent une renommée internationale. Certains[1] ont cependant contesté la véracité d'une partie des exploits et des données ornithologiques[2] qu'il a relatés dans ses livres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Henry Meinertzhagen (3 mars 1878 – 17 juin 1967) est un soldat britannique, officier des renseignements et ornithologue britannique. Ses exploits et ses travaux lui conférèrent une renommée internationale. Certains ont cependant contesté la véracité d'une partie des exploits et des données ornithologiques qu'il a relatés dans ses livres.
 </t>
         </is>
       </c>
